--- a/自制引擎接口列表及开发计划.xlsx
+++ b/自制引擎接口列表及开发计划.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="21495" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="21495" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="总体计划安排" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="对象列表" sheetId="3" r:id="rId2"/>
+    <sheet name="总体计划安排" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>自制引擎工作划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,86 @@
   </si>
   <si>
     <t>获得一个窗户对象的有效面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有楼层对象集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖通设备对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与xdb中设备属性一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得防烟分区长边长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间所在层板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火分区面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火分区所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防烟分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防烟分区面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防烟分区所在楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间位置（枚举：地上\地下\半地下)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得风机所连接的所有风管集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否风机所连风系统所有支路都连接了风口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +332,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,16 +633,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="2" max="2" width="78.375" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
@@ -597,7 +680,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -617,7 +700,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -635,7 +718,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
@@ -653,7 +736,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -667,7 +750,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -681,7 +764,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -695,7 +778,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
@@ -709,7 +792,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
@@ -723,7 +806,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -737,7 +820,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
@@ -797,49 +880,107 @@
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -849,10 +990,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -929,17 +1152,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>